--- a/covid19/data_covid19_msis_by_location_2020-06-24.xlsx
+++ b/covid19/data_covid19_msis_by_location_2020-06-24.xlsx
@@ -498,13 +498,13 @@
         <v>2</v>
       </c>
       <c r="M2">
-        <v>2827</v>
+        <v>2832</v>
       </c>
       <c r="N2">
         <v>693494</v>
       </c>
       <c r="O2">
-        <v>407.6459205126504</v>
+        <v>408.3669072839851</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -564,13 +564,13 @@
         <v>2</v>
       </c>
       <c r="M3">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N3">
         <v>479892</v>
       </c>
       <c r="O3">
-        <v>92.10405674610121</v>
+        <v>92.31243696498379</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -762,13 +762,13 @@
         <v>2</v>
       </c>
       <c r="M6">
-        <v>2377</v>
+        <v>2392</v>
       </c>
       <c r="N6">
         <v>1241165</v>
       </c>
       <c r="O6">
-        <v>191.513618253818</v>
+        <v>192.722160228495</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -1026,13 +1026,13 @@
         <v>2</v>
       </c>
       <c r="M10">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="N10">
         <v>636531</v>
       </c>
       <c r="O10">
-        <v>139.3490654814927</v>
+        <v>139.5061670209306</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1092,13 +1092,13 @@
         <v>2</v>
       </c>
       <c r="M11">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="N11">
         <v>468702</v>
       </c>
       <c r="O11">
-        <v>114.3583769644678</v>
+        <v>114.7850873262755</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -1224,13 +1224,13 @@
         <v>2</v>
       </c>
       <c r="M13">
-        <v>2822</v>
+        <v>2827</v>
       </c>
       <c r="N13">
         <v>693494</v>
       </c>
       <c r="O13">
-        <v>406.9249337413157</v>
+        <v>407.6459205126504</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -1488,13 +1488,13 @@
         <v>2</v>
       </c>
       <c r="M17">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N17">
         <v>79537</v>
       </c>
       <c r="O17">
-        <v>59.09199492060299</v>
+        <v>60.34927140827539</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -8352,13 +8352,13 @@
         <v>2</v>
       </c>
       <c r="M121">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N121">
         <v>20439</v>
       </c>
       <c r="O121">
-        <v>122.3151817603601</v>
+        <v>127.2077890307745</v>
       </c>
       <c r="P121" t="inlineStr">
         <is>
@@ -8418,13 +8418,13 @@
         <v>2</v>
       </c>
       <c r="M122">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N122">
         <v>15877</v>
       </c>
       <c r="O122">
-        <v>182.6541538073944</v>
+        <v>195.2509920010077</v>
       </c>
       <c r="P122" t="inlineStr">
         <is>
@@ -8484,13 +8484,13 @@
         <v>2</v>
       </c>
       <c r="M123">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N123">
         <v>19616</v>
       </c>
       <c r="O123">
-        <v>259.9918433931484</v>
+        <v>265.0897226753671</v>
       </c>
       <c r="P123" t="inlineStr">
         <is>
@@ -8550,13 +8550,13 @@
         <v>2</v>
       </c>
       <c r="M124">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N124">
         <v>127731</v>
       </c>
       <c r="O124">
-        <v>329.5989227360625</v>
+        <v>330.3818180394736</v>
       </c>
       <c r="P124" t="inlineStr">
         <is>
@@ -8748,13 +8748,13 @@
         <v>2</v>
       </c>
       <c r="M127">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N127">
         <v>18530</v>
       </c>
       <c r="O127">
-        <v>226.6594711279007</v>
+        <v>232.0561252023745</v>
       </c>
       <c r="P127" t="inlineStr">
         <is>
@@ -8880,13 +8880,13 @@
         <v>2</v>
       </c>
       <c r="M129">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="N129">
         <v>41460</v>
       </c>
       <c r="O129">
-        <v>274.9638205499276</v>
+        <v>287.0236372407139</v>
       </c>
       <c r="P129" t="inlineStr">
         <is>
@@ -8946,13 +8946,13 @@
         <v>2</v>
       </c>
       <c r="M130">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="N130">
         <v>85983</v>
       </c>
       <c r="O130">
-        <v>237.256201807334</v>
+        <v>241.9082841957131</v>
       </c>
       <c r="P130" t="inlineStr">
         <is>
@@ -16800,13 +16800,13 @@
         <v>2</v>
       </c>
       <c r="M249">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N249">
         <v>283929</v>
       </c>
       <c r="O249">
-        <v>201.8110161343153</v>
+        <v>202.1632168605532</v>
       </c>
       <c r="P249" t="inlineStr">
         <is>
@@ -19638,13 +19638,13 @@
         <v>2</v>
       </c>
       <c r="M292">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="N292">
         <v>205163</v>
       </c>
       <c r="O292">
-        <v>166.6967240681799</v>
+        <v>167.6715587118535</v>
       </c>
       <c r="P292" t="inlineStr">
         <is>
@@ -24720,13 +24720,13 @@
         <v>2</v>
       </c>
       <c r="M369">
-        <v>8751</v>
+        <v>8777</v>
       </c>
       <c r="N369">
         <v>5367580</v>
       </c>
       <c r="O369">
-        <v>163.0343655800193</v>
+        <v>163.5187551932156</v>
       </c>
       <c r="P369" t="inlineStr">
         <is>
